--- a/puzzle_results.xlsx
+++ b/puzzle_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\Documents\NetBeansProjects\projetoiaBit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="64">
   <si>
     <t>Breadth first search</t>
   </si>
@@ -210,6 +210,21 @@
   </si>
   <si>
     <t>Beam search (limit/beam size : 0)</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>Beam search (limit/beam size : 141|35|88|19|89)</t>
   </si>
 </sst>
 </file>
@@ -391,7 +406,7 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5" applyAlignment="1">
@@ -427,25 +442,44 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="16" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="15" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="11" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="18" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="10" applyAlignment="1">
@@ -466,24 +500,20 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="16" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="18" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="11" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="15" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -493,18 +523,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -847,119 +865,119 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="28">
+      <c r="A2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="22">
         <v>7</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="26">
         <v>7</v>
       </c>
       <c r="G2" s="26"/>
-      <c r="H2" s="22">
+      <c r="H2" s="29">
         <v>120</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="24">
+      <c r="I2" s="29"/>
+      <c r="J2" s="31">
         <v>7</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="29">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="23">
         <v>4779</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="27">
+      <c r="E3" s="23"/>
+      <c r="F3" s="21">
         <v>4545</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="23">
+      <c r="G3" s="21"/>
+      <c r="H3" s="30">
         <v>120</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="25">
+      <c r="I3" s="30"/>
+      <c r="J3" s="32">
         <v>1393719</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="29">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="23">
         <v>3615</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="27">
+      <c r="E4" s="23"/>
+      <c r="F4" s="21">
         <v>4203</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="23">
+      <c r="G4" s="21"/>
+      <c r="H4" s="30">
         <v>663</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="25">
+      <c r="I4" s="30"/>
+      <c r="J4" s="32">
         <v>60</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="29">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="23">
         <v>47950</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="27">
+      <c r="E5" s="23"/>
+      <c r="F5" s="21">
         <v>45454</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="23">
+      <c r="G5" s="21"/>
+      <c r="H5" s="30">
         <v>1066</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="25">
+      <c r="I5" s="30"/>
+      <c r="J5" s="32">
         <v>14800422</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1031,41 +1049,41 @@
       <c r="G13" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="19" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="20" t="s">
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="21" t="s">
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="2">
         <v>1</v>
       </c>
@@ -1128,11 +1146,11 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="3">
         <v>41</v>
       </c>
@@ -1195,11 +1213,11 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="3">
         <v>107</v>
       </c>
@@ -1262,11 +1280,11 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="3">
         <v>598</v>
       </c>
@@ -1329,11 +1347,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="3">
         <v>1016</v>
       </c>
@@ -1397,16 +1415,15 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="I15:M15"/>
     <mergeCell ref="N15:R15"/>
     <mergeCell ref="S15:W15"/>
@@ -1421,15 +1438,16 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="D15:H15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -1447,34 +1465,34 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="A2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
@@ -1482,15 +1500,15 @@
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
@@ -1498,15 +1516,15 @@
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
@@ -1514,15 +1532,15 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
@@ -1599,41 +1617,41 @@
       <c r="G13" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="19" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="20" t="s">
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="21" t="s">
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="2">
         <v>1</v>
       </c>
@@ -1696,11 +1714,11 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1723,16 +1741,16 @@
       <c r="W17" s="12"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="30"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1750,11 +1768,11 @@
       <c r="W18" s="12"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1777,11 +1795,11 @@
       <c r="W19" s="12"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1805,23 +1823,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="N15:R15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -1839,111 +1857,111 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="28">
+      <c r="A2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="22">
         <v>10</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="26">
         <v>10</v>
       </c>
       <c r="G2" s="26"/>
-      <c r="H2" s="22">
+      <c r="H2" s="29">
         <v>281</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="29">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="23">
         <v>14494</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="27">
+      <c r="E3" s="23"/>
+      <c r="F3" s="21">
         <v>13329</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="23">
+      <c r="G3" s="21"/>
+      <c r="H3" s="30">
         <v>281</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="29">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="23">
         <v>4651</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="27">
+      <c r="E4" s="23"/>
+      <c r="F4" s="21">
         <v>5831</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="23">
+      <c r="G4" s="21"/>
+      <c r="H4" s="30">
         <v>1287</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="29">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="23">
         <v>126663</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="27">
+      <c r="E5" s="23"/>
+      <c r="F5" s="21">
         <v>116985</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="23">
+      <c r="G5" s="21"/>
+      <c r="H5" s="30">
         <v>2343</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2015,41 +2033,41 @@
       <c r="G13" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="19" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="20" t="s">
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="21" t="s">
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="2">
         <v>1</v>
       </c>
@@ -2112,11 +2130,11 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="3">
         <v>26</v>
       </c>
@@ -2179,11 +2197,11 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="3">
         <v>88</v>
       </c>
@@ -2246,11 +2264,11 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="3">
         <v>387</v>
       </c>
@@ -2313,11 +2331,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="3">
         <v>813</v>
       </c>
@@ -2381,6 +2399,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:L4"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -2390,30 +2432,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="I15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -2431,108 +2449,108 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="29" t="s">
+      <c r="A2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="33" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="23" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="29">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="23">
         <v>5386</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="33">
+      <c r="E3" s="23"/>
+      <c r="F3" s="38">
         <v>6273</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="23">
+      <c r="G3" s="38"/>
+      <c r="H3" s="30">
         <v>135</v>
       </c>
-      <c r="I3" s="23"/>
+      <c r="I3" s="30"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="29">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="23">
         <v>1294</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="33">
+      <c r="E4" s="23"/>
+      <c r="F4" s="38">
         <v>1600</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="23">
+      <c r="G4" s="38"/>
+      <c r="H4" s="30">
         <v>527</v>
       </c>
-      <c r="I4" s="23"/>
+      <c r="I4" s="30"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="29">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="23">
         <v>43427</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="33">
+      <c r="E5" s="23"/>
+      <c r="F5" s="38">
         <v>50639</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34">
+      <c r="G5" s="38"/>
+      <c r="H5" s="39">
         <v>965</v>
       </c>
-      <c r="I5" s="34"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -2607,41 +2625,41 @@
       <c r="G13" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="19" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="20" t="s">
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="21" t="s">
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="2">
         <v>1</v>
       </c>
@@ -2704,11 +2722,11 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="3" t="s">
         <v>22</v>
       </c>
@@ -2760,7 +2778,7 @@
       <c r="T17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="32" t="s">
+      <c r="U17" s="16" t="s">
         <v>20</v>
       </c>
       <c r="V17" s="12" t="s">
@@ -2771,11 +2789,11 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="3">
         <v>313</v>
       </c>
@@ -2838,11 +2856,11 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="3">
         <v>725</v>
       </c>
@@ -2905,11 +2923,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="3">
         <v>2430</v>
       </c>
@@ -2973,27 +2991,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -3002,6 +2999,27 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -3019,108 +3037,108 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="28" t="s">
+      <c r="A2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="33" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="23" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="29">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="23">
         <v>3318</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="33">
+      <c r="E3" s="23"/>
+      <c r="F3" s="38">
         <v>3318</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="23">
+      <c r="G3" s="38"/>
+      <c r="H3" s="30">
         <v>2697638</v>
       </c>
-      <c r="I3" s="23"/>
+      <c r="I3" s="30"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="29">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="23">
         <v>696</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="33">
+      <c r="E4" s="23"/>
+      <c r="F4" s="38">
         <v>696</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="23">
+      <c r="G4" s="38"/>
+      <c r="H4" s="30">
         <v>3321</v>
       </c>
-      <c r="I4" s="23"/>
+      <c r="I4" s="30"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="29">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="23">
         <v>25783</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="33">
+      <c r="E5" s="23"/>
+      <c r="F5" s="38">
         <v>25783</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="23">
+      <c r="G5" s="38"/>
+      <c r="H5" s="30">
         <v>20616299</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="30"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -3195,41 +3213,41 @@
       <c r="G13" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="19" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="20" t="s">
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="21" t="s">
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="2">
         <v>1</v>
       </c>
@@ -3292,11 +3310,11 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="3" t="s">
         <v>32</v>
       </c>
@@ -3359,11 +3377,11 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="3">
         <v>138</v>
       </c>
@@ -3426,11 +3444,11 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="3">
         <v>344</v>
       </c>
@@ -3493,11 +3511,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="3">
         <v>1051</v>
       </c>
@@ -3561,17 +3579,15 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="I15:M15"/>
     <mergeCell ref="N15:R15"/>
@@ -3580,16 +3596,18 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -3607,108 +3625,108 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="29" t="s">
+      <c r="A2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="23" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="29">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="23">
         <v>837</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="33">
+      <c r="E3" s="23"/>
+      <c r="F3" s="38">
         <v>819</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="23">
+      <c r="G3" s="38"/>
+      <c r="H3" s="30">
         <v>137</v>
       </c>
-      <c r="I3" s="23"/>
+      <c r="I3" s="30"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="29">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="23">
         <v>112</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="33">
+      <c r="E4" s="23"/>
+      <c r="F4" s="38">
         <v>116</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="23">
+      <c r="G4" s="38"/>
+      <c r="H4" s="30">
         <v>351</v>
       </c>
-      <c r="I4" s="23"/>
+      <c r="I4" s="30"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="29">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="23">
         <v>5613</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="33">
+      <c r="E5" s="23"/>
+      <c r="F5" s="38">
         <v>5514</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="23">
+      <c r="G5" s="38"/>
+      <c r="H5" s="30">
         <v>912</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="30"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -3783,41 +3801,41 @@
       <c r="G13" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="19" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="20" t="s">
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="21" t="s">
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="2">
         <v>1</v>
       </c>
@@ -3880,11 +3898,11 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="3" t="s">
         <v>40</v>
       </c>
@@ -3894,7 +3912,7 @@
       <c r="F17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="17" t="s">
         <v>42</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -3906,7 +3924,7 @@
       <c r="J17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="37" t="s">
+      <c r="K17" s="18" t="s">
         <v>25</v>
       </c>
       <c r="L17" s="5" t="s">
@@ -3942,16 +3960,16 @@
       <c r="V17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="W17" s="38" t="s">
+      <c r="W17" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="3">
         <v>148</v>
       </c>
@@ -4009,16 +4027,16 @@
       <c r="V18" s="12">
         <v>114351</v>
       </c>
-      <c r="W18" s="38">
+      <c r="W18" s="19">
         <v>3043</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="3">
         <v>247</v>
       </c>
@@ -4076,16 +4094,16 @@
       <c r="V19" s="12">
         <v>388</v>
       </c>
-      <c r="W19" s="38">
+      <c r="W19" s="19">
         <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="3">
         <v>970</v>
       </c>
@@ -4143,23 +4161,21 @@
       <c r="V20" s="12">
         <v>772168</v>
       </c>
-      <c r="W20" s="38">
+      <c r="W20" s="19">
         <v>21669</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="I15:M15"/>
     <mergeCell ref="N15:R15"/>
@@ -4168,16 +4184,18 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -4195,38 +4213,38 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="29" t="s">
+      <c r="A2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="33" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
@@ -4234,19 +4252,19 @@
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="29">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="23">
         <v>3956</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="33">
+      <c r="E3" s="23"/>
+      <c r="F3" s="38">
         <v>3956</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
@@ -4254,19 +4272,19 @@
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="29">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="23">
         <v>382</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="33">
+      <c r="E4" s="23"/>
+      <c r="F4" s="38">
         <v>382</v>
       </c>
-      <c r="G4" s="33"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
@@ -4274,19 +4292,19 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="29">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="23">
         <v>32085</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="33">
+      <c r="E5" s="23"/>
+      <c r="F5" s="38">
         <v>32085</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
@@ -4363,41 +4381,41 @@
       <c r="G13" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="19" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="20" t="s">
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="21" t="s">
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="2">
         <v>1</v>
       </c>
@@ -4460,11 +4478,11 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="3" t="s">
         <v>47</v>
       </c>
@@ -4495,7 +4513,7 @@
       <c r="M17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="39" t="s">
+      <c r="N17" s="20" t="s">
         <v>47</v>
       </c>
       <c r="O17" s="10" t="s">
@@ -4527,11 +4545,11 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="3">
         <v>3956</v>
       </c>
@@ -4594,11 +4612,11 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="3">
         <v>1812</v>
       </c>
@@ -4661,11 +4679,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="3">
         <v>32085</v>
       </c>
@@ -4729,31 +4747,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -4771,38 +4789,38 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="A2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="31"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
@@ -4810,19 +4828,19 @@
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="6">
         <v>7664</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="31">
+      <c r="F3" s="15">
         <v>7541</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
@@ -4830,19 +4848,19 @@
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="6">
         <v>806</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="31">
+      <c r="F4" s="15">
         <v>926</v>
       </c>
-      <c r="G4" s="31"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
@@ -4850,19 +4868,19 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="6">
         <v>62641</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="31">
+      <c r="F5" s="15">
         <v>61522</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
@@ -4939,41 +4957,41 @@
       <c r="G13" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="19" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="20" t="s">
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="21" t="s">
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="2">
         <v>1</v>
       </c>
@@ -5036,18 +5054,18 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="17" t="s">
         <v>50</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -5062,7 +5080,7 @@
       <c r="J17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K17" s="37" t="s">
+      <c r="K17" s="18" t="s">
         <v>48</v>
       </c>
       <c r="L17" s="5" t="s">
@@ -5071,7 +5089,7 @@
       <c r="M17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="39" t="s">
+      <c r="N17" s="20" t="s">
         <v>53</v>
       </c>
       <c r="O17" s="10" t="s">
@@ -5086,7 +5104,7 @@
       <c r="R17" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="S17" s="32" t="s">
+      <c r="S17" s="16" t="s">
         <v>48</v>
       </c>
       <c r="T17" s="12" t="s">
@@ -5103,11 +5121,11 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="3">
         <v>815</v>
       </c>
@@ -5170,11 +5188,11 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="3">
         <v>1701</v>
       </c>
@@ -5237,11 +5255,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="3">
         <v>6393</v>
       </c>
@@ -5305,23 +5323,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="N15:R15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -5332,45 +5350,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="A2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="31"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
@@ -5378,19 +5396,19 @@
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="6">
         <v>1972</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="31">
+      <c r="F3" s="15">
         <v>1972</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
@@ -5398,19 +5416,19 @@
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="6">
         <v>246</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="31">
+      <c r="F4" s="15">
         <v>316</v>
       </c>
-      <c r="G4" s="31"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
@@ -5418,19 +5436,19 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="6">
         <v>13443</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="31">
+      <c r="F5" s="15">
         <v>13443</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
@@ -5507,41 +5525,41 @@
       <c r="G13" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="19" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="21" t="s">
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="2">
         <v>1</v>
       </c>
@@ -5604,11 +5622,523 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="3">
+        <v>266</v>
+      </c>
+      <c r="E18" s="3">
+        <v>225</v>
+      </c>
+      <c r="F18" s="3">
+        <v>225</v>
+      </c>
+      <c r="G18" s="3">
+        <v>300</v>
+      </c>
+      <c r="H18" s="13">
+        <v>175</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1960</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1971</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1775</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1424</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1821</v>
+      </c>
+      <c r="N18" s="10">
+        <v>1262</v>
+      </c>
+      <c r="O18" s="10">
+        <v>1906</v>
+      </c>
+      <c r="P18" s="10">
+        <v>1624</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>378</v>
+      </c>
+      <c r="R18" s="10">
+        <v>1262</v>
+      </c>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="3">
+        <v>328</v>
+      </c>
+      <c r="E19" s="3">
+        <v>382</v>
+      </c>
+      <c r="F19" s="3">
+        <v>382</v>
+      </c>
+      <c r="G19" s="3">
+        <v>240</v>
+      </c>
+      <c r="H19" s="3">
+        <v>228</v>
+      </c>
+      <c r="I19" s="5">
+        <v>331</v>
+      </c>
+      <c r="J19" s="5">
+        <v>325</v>
+      </c>
+      <c r="K19" s="5">
+        <v>340</v>
+      </c>
+      <c r="L19" s="5">
+        <v>404</v>
+      </c>
+      <c r="M19" s="5">
+        <v>328</v>
+      </c>
+      <c r="N19" s="10">
+        <v>89</v>
+      </c>
+      <c r="O19" s="10">
+        <v>35</v>
+      </c>
+      <c r="P19" s="10">
+        <v>88</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>19</v>
+      </c>
+      <c r="R19" s="10">
+        <v>89</v>
+      </c>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="3">
+        <v>1629</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1399</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1399</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1895</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1034</v>
+      </c>
+      <c r="I20" s="5">
+        <v>13393</v>
+      </c>
+      <c r="J20" s="5">
+        <v>13440</v>
+      </c>
+      <c r="K20" s="5">
+        <v>12187</v>
+      </c>
+      <c r="L20" s="5">
+        <v>9810</v>
+      </c>
+      <c r="M20" s="5">
+        <v>12566</v>
+      </c>
+      <c r="N20" s="10">
+        <v>8763</v>
+      </c>
+      <c r="O20" s="10">
+        <v>13041</v>
+      </c>
+      <c r="P20" s="10">
+        <v>11246</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>2401</v>
+      </c>
+      <c r="R20" s="10">
+        <v>8763</v>
+      </c>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="25"/>
+      <c r="H1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D15" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
+        <v>2</v>
+      </c>
+      <c r="K16" s="4">
+        <v>3</v>
+      </c>
+      <c r="L16" s="4">
+        <v>4</v>
+      </c>
+      <c r="M16" s="4">
+        <v>5</v>
+      </c>
+      <c r="N16" s="9">
+        <v>1</v>
+      </c>
+      <c r="O16" s="9">
+        <v>2</v>
+      </c>
+      <c r="P16" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>4</v>
+      </c>
+      <c r="R16" s="9">
+        <v>5</v>
+      </c>
+      <c r="S16" s="11">
+        <v>1</v>
+      </c>
+      <c r="T16" s="11">
+        <v>2</v>
+      </c>
+      <c r="U16" s="11">
+        <v>3</v>
+      </c>
+      <c r="V16" s="11">
+        <v>4</v>
+      </c>
+      <c r="W16" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -5631,16 +6161,16 @@
       <c r="W17" s="12"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="30"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -5658,11 +6188,11 @@
       <c r="W18" s="12"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -5685,11 +6215,11 @@
       <c r="W19" s="12"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -5713,415 +6243,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="N15:R15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G13" s="1"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D15" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2">
-        <v>3</v>
-      </c>
-      <c r="G16" s="2">
-        <v>4</v>
-      </c>
-      <c r="H16" s="2">
-        <v>5</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1</v>
-      </c>
-      <c r="J16" s="4">
-        <v>2</v>
-      </c>
-      <c r="K16" s="4">
-        <v>3</v>
-      </c>
-      <c r="L16" s="4">
-        <v>4</v>
-      </c>
-      <c r="M16" s="4">
-        <v>5</v>
-      </c>
-      <c r="N16" s="9">
-        <v>1</v>
-      </c>
-      <c r="O16" s="9">
-        <v>2</v>
-      </c>
-      <c r="P16" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>4</v>
-      </c>
-      <c r="R16" s="9">
-        <v>5</v>
-      </c>
-      <c r="S16" s="11">
-        <v>1</v>
-      </c>
-      <c r="T16" s="11">
-        <v>2</v>
-      </c>
-      <c r="U16" s="11">
-        <v>3</v>
-      </c>
-      <c r="V16" s="11">
-        <v>4</v>
-      </c>
-      <c r="W16" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/puzzle_results.xlsx
+++ b/puzzle_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="puzzle_1" sheetId="1" r:id="rId1"/>
@@ -338,22 +338,31 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="11" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="16" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="15" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="18" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="10" applyAlignment="1">
@@ -383,23 +392,29 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="11" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="15" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="18" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -419,9 +434,6 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,23 +443,11 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="12" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="16" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -2654,6 +2654,2211 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="383373840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Greedy best</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> first search</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Num of expanded nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>H1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>H2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>H3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>H4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>H5</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>puzzle_10!$D$18:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1973</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C16-4759-9C0C-6C3D6287B253}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Max frontier size</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>H1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>H2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>H3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>H4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>H5</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>puzzle_10!$D$19:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1537</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1341</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8C16-4759-9C0C-6C3D6287B253}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Num of generated nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>H1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>H2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>H3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>H4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>H5</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>puzzle_10!$D$20:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15386</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15386</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13574</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8C16-4759-9C0C-6C3D6287B253}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="469421744"/>
+        <c:axId val="469416824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="469421744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469416824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="469416824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469421744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.6888888888888888E-2"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.90088888888888885"/>
+          <c:h val="0.60977653834937295"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>puzzle_10!$D$18:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1973</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-590F-401D-BF2E-F333DC5FA8B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>puzzle_10!$D$19:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1537</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1341</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-590F-401D-BF2E-F333DC5FA8B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>puzzle_10!$D$20:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15386</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15386</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13574</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-590F-401D-BF2E-F333DC5FA8B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="469421744"/>
+        <c:axId val="469416824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="469421744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="469416824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="469416824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="6000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469421744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Beam search</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Num of expanded nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>H1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>H2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>H3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>H4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>H5</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>puzzle_10!$N$18:$R$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10728</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6173</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7645-45CC-9F7C-7209B0578107}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Max frontier size</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>H1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>H2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>H3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>H4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>H5</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>puzzle_10!$N$19:$R$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7645-45CC-9F7C-7209B0578107}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Num of generated nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>H1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>H2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>H3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>H4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>H5</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>puzzle_10!$N$20:$R$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>81536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89418</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7645-45CC-9F7C-7209B0578107}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="469421744"/>
+        <c:axId val="469416824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="469421744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469416824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="469416824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469421744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.6888888888888888E-2"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.90088888888888885"/>
+          <c:h val="0.60977653834937295"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>puzzle_10!$N$18:$R$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10728</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6173</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0912-4957-9F5D-C9830AFB3CCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>puzzle_10!$N$19:$R$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0912-4957-9F5D-C9830AFB3CCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>puzzle_10!$N$20:$R$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>81536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89418</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0912-4957-9F5D-C9830AFB3CCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="469421744"/>
+        <c:axId val="469416824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="469421744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="469416824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="469416824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90000"/>
+          <c:min val="5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469421744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>puzzle_10!$A$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Solution cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>puzzle_10!$D$1:$L$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>puzzle_10!$D$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Breadth first search</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Uniform cost search</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Depth first search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>puzzle_10!$D$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>puzzle_10!$D$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E34F-4448-8C88-24DD124143A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="345506296"/>
+        <c:axId val="345498096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="345506296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345498096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="345498096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345506296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.3E-2"/>
+          <c:y val="0.17675274533257296"/>
+          <c:w val="0.94133333333333336"/>
+          <c:h val="0.71101315582098823"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>puzzle_10!$A$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Solution cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.1798975222229438E-3"/>
+                  <c:y val="-4.4317933162937881E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.41943465506948258"/>
+                      <c:h val="0.12072344452726527"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>puzzle_10!$D$1:$L$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>puzzle_10!$D$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Breadth first search</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Uniform cost search</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Depth first search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>puzzle_10!$D$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>puzzle_10!$D$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B6BC-4122-B41D-86BCDF83F651}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="354075672"/>
+        <c:axId val="354076328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="354075672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="354076328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="354076328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="900"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354075672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6047,6 +8252,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8388,6 +10833,3036 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13313,14 +18788,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -13351,14 +18826,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -13389,14 +18864,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -13420,6 +18895,234 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{357B2F30-BCFE-4355-8145-59EAD57B1095}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F7398FA-8988-4BD3-99B1-BCCA5576B62F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F9EB247-2EFE-40AF-B90E-0DD802C3CBBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F6F435E-B5DC-4244-928A-2020A12BDF68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>150320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B522570E-200A-4894-9AD0-62DC6F88E9AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>150322</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05784F5C-F861-41DE-853F-0F39BB6A60BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13727,126 +19430,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="41">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="29">
         <v>7</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="38">
+      <c r="E2" s="30"/>
+      <c r="F2" s="42">
         <v>7</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="31">
+      <c r="G2" s="43"/>
+      <c r="H2" s="34">
         <v>120</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="34">
+      <c r="I2" s="35"/>
+      <c r="J2" s="37">
         <v>7</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="43">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="31">
         <v>4779</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="40">
+      <c r="E3" s="31"/>
+      <c r="F3" s="28">
         <v>4545</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="33">
+      <c r="G3" s="28"/>
+      <c r="H3" s="36">
         <v>120</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="36">
+      <c r="I3" s="36"/>
+      <c r="J3" s="39">
         <v>1393719</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="43">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="31">
         <v>3615</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="40">
+      <c r="E4" s="31"/>
+      <c r="F4" s="28">
         <v>4203</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="33">
+      <c r="G4" s="28"/>
+      <c r="H4" s="36">
         <v>663</v>
       </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="36">
+      <c r="I4" s="36"/>
+      <c r="J4" s="39">
         <v>60</v>
       </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="43">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="31">
         <v>47950</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="40">
+      <c r="E5" s="31"/>
+      <c r="F5" s="28">
         <v>45454</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="33">
+      <c r="G5" s="28"/>
+      <c r="H5" s="36">
         <v>1066</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="36">
+      <c r="I5" s="36"/>
+      <c r="J5" s="39">
         <v>14800422</v>
       </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -13921,41 +19624,41 @@
       <c r="K13" s="16"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="28" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="29" t="s">
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="30" t="s">
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="2">
         <v>1</v>
       </c>
@@ -14018,11 +19721,11 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="19">
         <v>41</v>
       </c>
@@ -14085,11 +19788,11 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="3">
         <v>107</v>
       </c>
@@ -14152,11 +19855,11 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="3">
         <v>598</v>
       </c>
@@ -14219,11 +19922,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="3">
         <v>1016</v>
       </c>
@@ -14290,13 +19993,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="I15:M15"/>
     <mergeCell ref="N15:R15"/>
     <mergeCell ref="S15:W15"/>
     <mergeCell ref="H1:I1"/>
@@ -14313,16 +20019,13 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -14334,115 +20037,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="51">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="55">
         <v>42</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="52">
+      <c r="E2" s="31"/>
+      <c r="F2" s="56">
         <v>42</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="53">
+      <c r="G2" s="53"/>
+      <c r="H2" s="57">
         <v>1153</v>
       </c>
-      <c r="I2" s="33"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="43">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="31">
         <v>12024</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="48">
+      <c r="E3" s="31"/>
+      <c r="F3" s="53">
         <v>12209</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="33">
+      <c r="G3" s="53"/>
+      <c r="H3" s="36">
         <v>1574</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="43">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="31">
         <v>913</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="48">
+      <c r="E4" s="31"/>
+      <c r="F4" s="53">
         <v>1059</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="33">
+      <c r="G4" s="53"/>
+      <c r="H4" s="36">
         <v>3568</v>
       </c>
-      <c r="I4" s="33"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="43">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="31">
         <v>91203</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="48">
+      <c r="E5" s="31"/>
+      <c r="F5" s="53">
         <v>92423</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="33">
+      <c r="G5" s="53"/>
+      <c r="H5" s="36">
         <v>11149</v>
       </c>
-      <c r="I5" s="33"/>
+      <c r="I5" s="36"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -14517,41 +20220,41 @@
       <c r="G13" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="28" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="29" t="s">
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="30" t="s">
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="2">
         <v>1</v>
       </c>
@@ -14614,39 +20317,39 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="54">
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="23">
         <v>86</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="23">
         <v>87</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="23">
         <v>87</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G17" s="23">
         <v>58</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="23">
         <v>78</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="24">
         <v>42</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="24">
         <v>42</v>
       </c>
-      <c r="K17" s="55">
+      <c r="K17" s="24">
         <v>42</v>
       </c>
-      <c r="L17" s="55">
+      <c r="L17" s="24">
         <v>44</v>
       </c>
-      <c r="M17" s="55">
+      <c r="M17" s="24">
         <v>42</v>
       </c>
       <c r="N17" s="21">
@@ -14664,28 +20367,28 @@
       <c r="R17" s="21">
         <v>42</v>
       </c>
-      <c r="S17" s="56">
+      <c r="S17" s="25">
         <v>42</v>
       </c>
-      <c r="T17" s="56">
+      <c r="T17" s="25">
         <v>42</v>
       </c>
-      <c r="U17" s="56">
+      <c r="U17" s="25">
         <v>42</v>
       </c>
-      <c r="V17" s="56">
+      <c r="V17" s="25">
         <v>0</v>
       </c>
-      <c r="W17" s="56">
+      <c r="W17" s="25">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="3">
         <v>1110</v>
       </c>
@@ -14748,11 +20451,11 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="3">
         <v>770</v>
       </c>
@@ -14815,11 +20518,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="3">
         <v>6971</v>
       </c>
@@ -14883,11 +20586,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="S15:W15"/>
@@ -14904,14 +20610,11 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -14924,117 +20627,125 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="44">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="49">
         <v>10</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="45">
+      <c r="E2" s="49"/>
+      <c r="F2" s="50">
         <v>10</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46">
+      <c r="G2" s="50"/>
+      <c r="H2" s="51">
         <v>281</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52">
+        <v>10</v>
+      </c>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="43">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="31">
         <v>14494</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="40">
+      <c r="E3" s="31"/>
+      <c r="F3" s="28">
         <v>13329</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="33">
+      <c r="G3" s="28"/>
+      <c r="H3" s="36">
         <v>281</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="39">
+        <v>264874180</v>
+      </c>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="43">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="31">
         <v>4651</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="40">
+      <c r="E4" s="31"/>
+      <c r="F4" s="28">
         <v>5831</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="33">
+      <c r="G4" s="28"/>
+      <c r="H4" s="36">
         <v>1287</v>
       </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="39">
+        <v>82</v>
+      </c>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="43">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="31">
         <v>126663</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="40">
+      <c r="E5" s="31"/>
+      <c r="F5" s="28">
         <v>116985</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="33">
+      <c r="G5" s="28"/>
+      <c r="H5" s="36">
         <v>2343</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="39">
+        <v>2498442139</v>
+      </c>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -15107,41 +20818,41 @@
       <c r="G13" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="28" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="29" t="s">
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="30" t="s">
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="2">
         <v>1</v>
       </c>
@@ -15204,11 +20915,11 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="3">
         <v>26</v>
       </c>
@@ -15271,11 +20982,11 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="3">
         <v>88</v>
       </c>
@@ -15338,11 +21049,11 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="3">
         <v>387</v>
       </c>
@@ -15405,11 +21116,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="3">
         <v>813</v>
       </c>
@@ -15473,6 +21184,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:L4"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -15482,30 +21217,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="I15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -15523,108 +21234,108 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="51">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="55">
         <v>12</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="52">
+      <c r="E2" s="31"/>
+      <c r="F2" s="56">
         <v>12</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="53">
+      <c r="G2" s="53"/>
+      <c r="H2" s="57">
         <v>135</v>
       </c>
-      <c r="I2" s="33"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="43">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="31">
         <v>5386</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="48">
+      <c r="E3" s="31"/>
+      <c r="F3" s="53">
         <v>6273</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="33">
+      <c r="G3" s="53"/>
+      <c r="H3" s="36">
         <v>135</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="43">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="31">
         <v>1294</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="48">
+      <c r="E4" s="31"/>
+      <c r="F4" s="53">
         <v>1600</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="33">
+      <c r="G4" s="53"/>
+      <c r="H4" s="36">
         <v>527</v>
       </c>
-      <c r="I4" s="33"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="43">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="31">
         <v>43427</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="48">
+      <c r="E5" s="31"/>
+      <c r="F5" s="53">
         <v>50639</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49">
+      <c r="G5" s="53"/>
+      <c r="H5" s="54">
         <v>965</v>
       </c>
-      <c r="I5" s="49"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -15700,41 +21411,41 @@
       <c r="G13" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="28" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="29" t="s">
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="30" t="s">
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="2">
         <v>1</v>
       </c>
@@ -15797,39 +21508,39 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="54">
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="23">
         <v>40</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="23">
         <v>77</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="23">
         <v>77</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G17" s="23">
         <v>38</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="23">
         <v>13</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="24">
         <v>12</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="24">
         <v>12</v>
       </c>
-      <c r="K17" s="55">
+      <c r="K17" s="24">
         <v>12</v>
       </c>
-      <c r="L17" s="55">
+      <c r="L17" s="24">
         <v>12</v>
       </c>
-      <c r="M17" s="55">
+      <c r="M17" s="24">
         <v>12</v>
       </c>
       <c r="N17" s="21">
@@ -15847,28 +21558,28 @@
       <c r="R17" s="21">
         <v>12</v>
       </c>
-      <c r="S17" s="56">
+      <c r="S17" s="25">
         <v>12</v>
       </c>
-      <c r="T17" s="56">
+      <c r="T17" s="25">
         <v>12</v>
       </c>
       <c r="U17" s="22">
         <v>12</v>
       </c>
-      <c r="V17" s="56">
+      <c r="V17" s="25">
         <v>12</v>
       </c>
-      <c r="W17" s="56">
+      <c r="W17" s="25">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="3">
         <v>313</v>
       </c>
@@ -15931,11 +21642,11 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="3">
         <v>725</v>
       </c>
@@ -15998,11 +21709,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="3">
         <v>2430</v>
       </c>
@@ -16066,6 +21777,21 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="I15:M15"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="A20:C20"/>
@@ -16080,21 +21806,6 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -16105,115 +21816,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="41">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="29">
         <v>12</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="52">
+      <c r="E2" s="49"/>
+      <c r="F2" s="56">
         <v>12</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="53">
+      <c r="G2" s="53"/>
+      <c r="H2" s="57">
         <v>1119</v>
       </c>
-      <c r="I2" s="33"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="43">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="31">
         <v>3318</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="48">
+      <c r="E3" s="31"/>
+      <c r="F3" s="53">
         <v>3318</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="33">
+      <c r="G3" s="53"/>
+      <c r="H3" s="36">
         <v>2697638</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="43">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="31">
         <v>696</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="48">
+      <c r="E4" s="31"/>
+      <c r="F4" s="53">
         <v>696</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="33">
+      <c r="G4" s="53"/>
+      <c r="H4" s="36">
         <v>3321</v>
       </c>
-      <c r="I4" s="33"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="43">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="31">
         <v>25783</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="48">
+      <c r="E5" s="31"/>
+      <c r="F5" s="53">
         <v>25783</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="33">
+      <c r="G5" s="53"/>
+      <c r="H5" s="36">
         <v>20616299</v>
       </c>
-      <c r="I5" s="33"/>
+      <c r="I5" s="36"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -16288,41 +21999,41 @@
       <c r="G13" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="28" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="29" t="s">
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="30" t="s">
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="2">
         <v>1</v>
       </c>
@@ -16385,39 +22096,39 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="54">
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="23">
         <v>16</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="23">
         <v>31</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="23">
         <v>31</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G17" s="23">
         <v>26</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="23">
         <v>12</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="24">
         <v>12</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="24">
         <v>12</v>
       </c>
-      <c r="K17" s="55">
+      <c r="K17" s="24">
         <v>12</v>
       </c>
-      <c r="L17" s="55">
+      <c r="L17" s="24">
         <v>12</v>
       </c>
-      <c r="M17" s="55">
+      <c r="M17" s="24">
         <v>12</v>
       </c>
       <c r="N17" s="21">
@@ -16435,28 +22146,28 @@
       <c r="R17" s="21">
         <v>12</v>
       </c>
-      <c r="S17" s="56">
-        <v>204</v>
-      </c>
-      <c r="T17" s="56">
+      <c r="S17" s="25">
         <v>12</v>
       </c>
-      <c r="U17" s="56">
+      <c r="T17" s="25">
         <v>12</v>
       </c>
-      <c r="V17" s="56">
+      <c r="U17" s="25">
         <v>12</v>
       </c>
-      <c r="W17" s="56">
+      <c r="V17" s="25">
+        <v>12</v>
+      </c>
+      <c r="W17" s="25">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="3">
         <v>138</v>
       </c>
@@ -16503,7 +22214,7 @@
         <v>270</v>
       </c>
       <c r="S18" s="12">
-        <v>2355</v>
+        <v>6554</v>
       </c>
       <c r="T18" s="12">
         <v>18479</v>
@@ -16519,11 +22230,11 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="3">
         <v>344</v>
       </c>
@@ -16570,7 +22281,7 @@
         <v>40</v>
       </c>
       <c r="S19" s="12">
-        <v>12</v>
+        <v>1027</v>
       </c>
       <c r="T19" s="12">
         <v>2055</v>
@@ -16586,11 +22297,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="3">
         <v>1051</v>
       </c>
@@ -16637,7 +22348,7 @@
         <v>2151</v>
       </c>
       <c r="S20" s="12">
-        <v>17615</v>
+        <v>51488</v>
       </c>
       <c r="T20" s="12">
         <v>144811</v>
@@ -16654,19 +22365,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A3:C3"/>
@@ -16677,12 +22381,19 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -16693,115 +22404,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="51">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="55">
         <v>13</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="57">
+      <c r="E2" s="31"/>
+      <c r="F2" s="58">
         <v>13</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="53">
+      <c r="G2" s="59"/>
+      <c r="H2" s="57">
         <v>135</v>
       </c>
-      <c r="I2" s="33"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="43">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="31">
         <v>837</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="48">
+      <c r="E3" s="31"/>
+      <c r="F3" s="53">
         <v>819</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="33">
+      <c r="G3" s="53"/>
+      <c r="H3" s="36">
         <v>137</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="43">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="31">
         <v>112</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="48">
+      <c r="E4" s="31"/>
+      <c r="F4" s="53">
         <v>116</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="33">
+      <c r="G4" s="53"/>
+      <c r="H4" s="36">
         <v>351</v>
       </c>
-      <c r="I4" s="33"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="43">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="31">
         <v>5613</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="48">
+      <c r="E5" s="31"/>
+      <c r="F5" s="53">
         <v>5514</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="33">
+      <c r="G5" s="53"/>
+      <c r="H5" s="36">
         <v>912</v>
       </c>
-      <c r="I5" s="33"/>
+      <c r="I5" s="36"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -16877,41 +22588,41 @@
       <c r="G13" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="28" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="29" t="s">
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="30" t="s">
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="2">
         <v>1</v>
       </c>
@@ -16974,39 +22685,39 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="54">
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="23">
         <v>30</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="23">
         <v>29</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="23">
         <v>29</v>
       </c>
       <c r="G17" s="19">
         <v>17</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="23">
         <v>17</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="24">
         <v>13</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="24">
         <v>13</v>
       </c>
       <c r="K17" s="20">
         <v>13</v>
       </c>
-      <c r="L17" s="55">
+      <c r="L17" s="24">
         <v>13</v>
       </c>
-      <c r="M17" s="55">
+      <c r="M17" s="24">
         <v>13</v>
       </c>
       <c r="N17" s="21">
@@ -17024,28 +22735,28 @@
       <c r="R17" s="21">
         <v>13</v>
       </c>
-      <c r="S17" s="56">
+      <c r="S17" s="25">
         <v>13</v>
       </c>
-      <c r="T17" s="56">
+      <c r="T17" s="25">
         <v>13</v>
       </c>
-      <c r="U17" s="56">
+      <c r="U17" s="25">
         <v>13</v>
       </c>
-      <c r="V17" s="56">
+      <c r="V17" s="25">
         <v>13</v>
       </c>
-      <c r="W17" s="58">
+      <c r="W17" s="26">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="3">
         <v>148</v>
       </c>
@@ -17108,11 +22819,11 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="3">
         <v>247</v>
       </c>
@@ -17175,11 +22886,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="3">
         <v>970</v>
       </c>
@@ -17243,19 +22954,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A3:C3"/>
@@ -17266,12 +22970,19 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -17289,38 +23000,38 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="51">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="55">
         <v>0</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="52">
+      <c r="E2" s="31"/>
+      <c r="F2" s="56">
         <v>0</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
@@ -17328,19 +23039,19 @@
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="43">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="31">
         <v>3956</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="48">
+      <c r="E3" s="31"/>
+      <c r="F3" s="53">
         <v>3956</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
@@ -17348,19 +23059,19 @@
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="43">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="31">
         <v>382</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="48">
+      <c r="E4" s="31"/>
+      <c r="F4" s="53">
         <v>382</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
@@ -17368,19 +23079,19 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="43">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="31">
         <v>32085</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="48">
+      <c r="E5" s="31"/>
+      <c r="F5" s="53">
         <v>32085</v>
       </c>
-      <c r="G5" s="48"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
@@ -17457,41 +23168,41 @@
       <c r="G13" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="28" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="29" t="s">
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="30" t="s">
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="2">
         <v>1</v>
       </c>
@@ -17554,42 +23265,42 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="54">
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="23">
         <v>0</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="23">
         <v>0</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="23">
         <v>0</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G17" s="23">
         <v>0</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="23">
         <v>0</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="24">
         <v>0</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="24">
         <v>0</v>
       </c>
-      <c r="K17" s="55">
+      <c r="K17" s="24">
         <v>0</v>
       </c>
-      <c r="L17" s="55">
+      <c r="L17" s="24">
         <v>0</v>
       </c>
-      <c r="M17" s="55">
+      <c r="M17" s="24">
         <v>0</v>
       </c>
-      <c r="N17" s="59">
+      <c r="N17" s="27">
         <v>0</v>
       </c>
       <c r="O17" s="21">
@@ -17604,28 +23315,28 @@
       <c r="R17" s="21">
         <v>0</v>
       </c>
-      <c r="S17" s="56">
+      <c r="S17" s="25">
         <v>0</v>
       </c>
-      <c r="T17" s="56">
+      <c r="T17" s="25">
         <v>0</v>
       </c>
-      <c r="U17" s="56">
+      <c r="U17" s="25">
         <v>0</v>
       </c>
-      <c r="V17" s="56">
+      <c r="V17" s="25">
         <v>0</v>
       </c>
-      <c r="W17" s="56">
+      <c r="W17" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="3">
         <v>3956</v>
       </c>
@@ -17688,11 +23399,11 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="3">
         <v>1812</v>
       </c>
@@ -17755,11 +23466,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="3">
         <v>32085</v>
       </c>
@@ -17823,11 +23534,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="S15:W15"/>
@@ -17841,13 +23554,11 @@
     <mergeCell ref="N15:R15"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -17865,38 +23576,38 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="51">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="55">
         <v>22</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="52">
+      <c r="E2" s="31"/>
+      <c r="F2" s="56">
         <v>22</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
@@ -17904,19 +23615,19 @@
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="43">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="31">
         <v>7664</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="48">
+      <c r="E3" s="31"/>
+      <c r="F3" s="53">
         <v>7541</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
@@ -17924,19 +23635,19 @@
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="43">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="31">
         <v>806</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="48">
+      <c r="E4" s="31"/>
+      <c r="F4" s="53">
         <v>926</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
@@ -17944,19 +23655,19 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="43">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="31">
         <v>62641</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="48">
+      <c r="E5" s="31"/>
+      <c r="F5" s="53">
         <v>61522</v>
       </c>
-      <c r="G5" s="48"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
@@ -18033,41 +23744,41 @@
       <c r="G13" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="28" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="29" t="s">
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="30" t="s">
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="2">
         <v>1</v>
       </c>
@@ -18130,45 +23841,45 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="54">
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="23">
         <v>169</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="23">
         <v>93</v>
       </c>
       <c r="F17" s="19">
         <v>93</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G17" s="23">
         <v>29</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="23">
         <v>108</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="24">
         <v>22</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="24">
         <v>22</v>
       </c>
       <c r="K17" s="20">
         <v>22</v>
       </c>
-      <c r="L17" s="55">
+      <c r="L17" s="24">
         <v>24</v>
       </c>
-      <c r="M17" s="55">
+      <c r="M17" s="24">
         <v>22</v>
       </c>
-      <c r="N17" s="59">
+      <c r="N17" s="27">
         <v>22</v>
       </c>
-      <c r="O17" s="59">
+      <c r="O17" s="27">
         <v>22</v>
       </c>
       <c r="P17" s="21">
@@ -18183,25 +23894,25 @@
       <c r="S17" s="22">
         <v>22</v>
       </c>
-      <c r="T17" s="56">
+      <c r="T17" s="25">
         <v>22</v>
       </c>
-      <c r="U17" s="56">
+      <c r="U17" s="25">
         <v>22</v>
       </c>
-      <c r="V17" s="56">
+      <c r="V17" s="25">
         <v>22</v>
       </c>
-      <c r="W17" s="56">
+      <c r="W17" s="25">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="3">
         <v>815</v>
       </c>
@@ -18264,11 +23975,11 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="3">
         <v>1701</v>
       </c>
@@ -18331,11 +24042,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="3">
         <v>6393</v>
       </c>
@@ -18399,11 +24110,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="N15:R15"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -18418,12 +24130,11 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -18441,38 +24152,38 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="51">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="55">
         <v>25</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="52">
+      <c r="E2" s="31"/>
+      <c r="F2" s="56">
         <v>25</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
@@ -18480,19 +24191,19 @@
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="43">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="31">
         <v>1972</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="48">
+      <c r="E3" s="31"/>
+      <c r="F3" s="53">
         <v>1972</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
@@ -18500,19 +24211,19 @@
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="43">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="31">
         <v>246</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="48">
+      <c r="E4" s="31"/>
+      <c r="F4" s="53">
         <v>316</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
@@ -18520,19 +24231,19 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="43">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="31">
         <v>13443</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="48">
+      <c r="E5" s="31"/>
+      <c r="F5" s="53">
         <v>13443</v>
       </c>
-      <c r="G5" s="48"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
@@ -18613,41 +24324,41 @@
       <c r="R14" s="18"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="28" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="29" t="s">
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="30" t="s">
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="2">
         <v>1</v>
       </c>
@@ -18710,39 +24421,39 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="19">
         <v>36</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="23">
         <v>59</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="23">
         <v>59</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G17" s="23">
         <v>27</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="23">
         <v>32</v>
       </c>
       <c r="I17" s="20">
         <v>25</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="24">
         <v>25</v>
       </c>
-      <c r="K17" s="55">
+      <c r="K17" s="24">
         <v>25</v>
       </c>
-      <c r="L17" s="55">
+      <c r="L17" s="24">
         <v>25</v>
       </c>
-      <c r="M17" s="55">
+      <c r="M17" s="24">
         <v>25</v>
       </c>
       <c r="N17" s="21">
@@ -18757,31 +24468,31 @@
       <c r="Q17" s="21">
         <v>25</v>
       </c>
-      <c r="R17" s="59">
+      <c r="R17" s="27">
         <v>25</v>
       </c>
-      <c r="S17" s="56">
+      <c r="S17" s="25">
         <v>25</v>
       </c>
-      <c r="T17" s="56">
+      <c r="T17" s="25">
         <v>25</v>
       </c>
-      <c r="U17" s="56">
+      <c r="U17" s="25">
         <v>25</v>
       </c>
-      <c r="V17" s="56">
+      <c r="V17" s="25">
         <v>25</v>
       </c>
-      <c r="W17" s="56">
+      <c r="W17" s="25">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="3">
         <v>266</v>
       </c>
@@ -18844,11 +24555,11 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="3">
         <v>328</v>
       </c>
@@ -18911,11 +24622,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="3">
         <v>1629</v>
       </c>
@@ -18979,11 +24690,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="N15:R15"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -18998,12 +24710,11 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -19021,108 +24732,108 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="51">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="55">
         <v>28</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="52">
+      <c r="E2" s="31"/>
+      <c r="F2" s="56">
         <v>28</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="53">
+      <c r="G2" s="53"/>
+      <c r="H2" s="57">
         <v>259</v>
       </c>
-      <c r="I2" s="33"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="43">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="31">
         <v>982</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="48">
+      <c r="E3" s="31"/>
+      <c r="F3" s="53">
         <v>976</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="33">
+      <c r="G3" s="53"/>
+      <c r="H3" s="36">
         <v>320</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="43">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="31">
         <v>104</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="48">
+      <c r="E4" s="31"/>
+      <c r="F4" s="53">
         <v>133</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="33">
+      <c r="G4" s="53"/>
+      <c r="H4" s="36">
         <v>536</v>
       </c>
-      <c r="I4" s="33"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="43">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="31">
         <v>5848</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="48">
+      <c r="E5" s="31"/>
+      <c r="F5" s="53">
         <v>5822</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="33">
+      <c r="G5" s="53"/>
+      <c r="H5" s="36">
         <v>1830</v>
       </c>
-      <c r="I5" s="33"/>
+      <c r="I5" s="36"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -19198,41 +24909,41 @@
       <c r="G13" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="28" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="29" t="s">
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="30" t="s">
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="2">
         <v>1</v>
       </c>
@@ -19295,39 +25006,39 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="54">
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="23">
         <v>76</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="23">
         <v>48</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="23">
         <v>49</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G17" s="23">
         <v>51</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="23">
         <v>47</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="24">
         <v>28</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="24">
         <v>28</v>
       </c>
-      <c r="K17" s="55">
+      <c r="K17" s="24">
         <v>30</v>
       </c>
-      <c r="L17" s="55">
+      <c r="L17" s="24">
         <v>30</v>
       </c>
-      <c r="M17" s="55">
+      <c r="M17" s="24">
         <v>28</v>
       </c>
       <c r="N17" s="21">
@@ -19345,28 +25056,28 @@
       <c r="R17" s="21">
         <v>28</v>
       </c>
-      <c r="S17" s="56">
+      <c r="S17" s="25">
         <v>28</v>
       </c>
-      <c r="T17" s="56">
+      <c r="T17" s="25">
         <v>28</v>
       </c>
-      <c r="U17" s="56">
+      <c r="U17" s="25">
         <v>28</v>
       </c>
-      <c r="V17" s="56">
+      <c r="V17" s="25">
         <v>28</v>
       </c>
-      <c r="W17" s="56">
+      <c r="W17" s="25">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="3">
         <v>443</v>
       </c>
@@ -19429,11 +25140,11 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="3">
         <v>446</v>
       </c>
@@ -19496,11 +25207,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="3">
         <v>2605</v>
       </c>
@@ -19564,11 +25275,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="S15:W15"/>
@@ -19585,14 +25299,11 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/puzzle_results.xlsx
+++ b/puzzle_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="puzzle_1" sheetId="1" r:id="rId1"/>
@@ -4661,6 +4661,9 @@
                       <c:h val="0.12072344452726527"/>
                     </c:manualLayout>
                   </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-B780-4DA3-BCC0-FDB35142D691}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -19430,8 +19433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20037,8 +20040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21816,7 +21819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
